--- a/pred_ohlcv/54_21/2019-11-02 CRO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 CRO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>183161.3632</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>184112.5827</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>183259.6351</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>188259.6351</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>154297.7286</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>155703.1386</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>138482.4975</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>139373.2486</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>140453.2486</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>139047.8386</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>139047.8386</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>139037.8386</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>129860.6952</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>131860.6952</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>127860.6952</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>128860.6952</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>128860.6952</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>127908.5213</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>121549.3862</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>115174.5658</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>115174.5658</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>127174.5658</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>136341.2652</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>134935.8552</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>127436.2551</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>127931.9073</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>127931.9073</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>130124.84802866</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>72068.13975731996</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>72068.13975731996</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>72068.13975731996</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>72068.13975731996</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>72068.13975731996</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>60883.97205731997</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>40426.32435731997</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>40426.32435731997</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>40426.32435731997</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>45426.32435731997</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>45436.32435731997</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>44903.14995731996</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>43793.14995731996</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>45648.95725731996</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>47226.95725731996</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>47204.95725731996</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>48786.69775731996</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>124730.76067923</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>132729.76067923</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>83727.89907922997</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>83727.89907922997</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>21453.89487922997</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>22018.84707922997</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>40451.24547922997</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>40451.24547922997</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>27039.79357922997</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-18434.01932077003</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-21015.22262077003</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-21015.22262077003</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-21015.22262077003</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-9156.821720770029</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-23621.53712077003</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-22621.53712077003</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-11462.94002077003</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>192169.41607923</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>54510.42987922998</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>105410.01157923</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>121708.55947923</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>74919.57717922999</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-8096.783420770007</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-353.7740207700072</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-6641.498820770008</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>14043.15335774999</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-239396.97865501</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-232523.50835182</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-241670.88835182</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-241670.88835182</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-241670.88835182</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-238670.88835182</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-242620.88835182</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-237193.02915182</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-226618.26425182</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-252125.98765182</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-233865.96605182</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-233865.96605182</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-253428.91935182</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-02 CRO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 CRO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>183161.3632</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>184112.5827</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>183259.6351</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>188259.6351</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>154297.7286</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>155703.1386</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>138482.4975</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>139373.2486</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>140453.2486</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>139047.8386</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>124730.76067923</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>132729.76067923</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>83727.89907922997</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>83727.89907922997</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>21453.89487922997</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>22018.84707922997</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>40451.24547922997</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>40451.24547922997</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>27039.79357922997</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-18434.01932077003</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-21015.22262077003</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-21015.22262077003</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-21015.22262077003</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-9156.821720770029</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-23621.53712077003</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-22621.53712077003</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-11462.94002077003</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>192169.41607923</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>54510.42987922998</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>105410.01157923</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>121708.55947923</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>74919.57717922999</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-8096.783420770007</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-353.7740207700072</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-6641.498820770008</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>14043.15335774999</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-239396.97865501</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-232523.50835182</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-241670.88835182</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-241670.88835182</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-241670.88835182</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-238670.88835182</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-242620.88835182</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-237193.02915182</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-226618.26425182</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-252125.98765182</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-233865.96605182</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-233865.96605182</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-258219.55535182</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-247966.55535182</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-250866.55535182</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-250428.91935182</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
